--- a/DRAFT-TABLES_FIGURES_4-17-2021/_Supp Table 3 prioritized-CpGs-crossTissue_brain_blood.xlsx
+++ b/DRAFT-TABLES_FIGURES_4-17-2021/_Supp Table 3 prioritized-CpGs-crossTissue_brain_blood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiagosilva/TBL Dropbox/Tiago Silva/AD-meta-analysis-blood-samples/DRAFT-TABLES_FIGURES_4-17-2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxw391\TBL Dropbox\Lily Wang\AD-meta-analysis-blood-samples\DRAFT-TABLES_FIGURES_4-17-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5DA9A5-D01A-3A48-9F3F-6634FC7FB15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9888E75B-4174-4F36-B9A0-0D4228CDAD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3320" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CpGs" sheetId="1" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1708,20 +1708,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2064,31 +2060,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Z102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="17" width="12.33203125" style="9" customWidth="1"/>
     <col min="18" max="18" width="33.33203125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="32.1640625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="32.109375" style="10" customWidth="1"/>
     <col min="20" max="20" width="26" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="175" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="255.77734375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="177.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
@@ -2118,7 +2114,7 @@
       <c r="R4" s="52"/>
       <c r="S4" s="53"/>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>365</v>
       </c>
@@ -2164,17 +2160,17 @@
       <c r="P5" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>380</v>
       </c>
       <c r="S5" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
@@ -2223,7 +2219,7 @@
       <c r="Q6" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R6" s="59" t="s">
+      <c r="R6" s="56" t="s">
         <v>383</v>
       </c>
       <c r="S6" s="11" t="s">
@@ -2239,7 +2235,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
@@ -2285,10 +2281,10 @@
       <c r="P7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="56" t="s">
+      <c r="Q7" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R7" s="60"/>
+      <c r="R7" s="56"/>
       <c r="S7" s="15" t="s">
         <v>7</v>
       </c>
@@ -2302,7 +2298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
@@ -2348,10 +2344,10 @@
       <c r="P8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="56" t="s">
+      <c r="Q8" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R8" s="60"/>
+      <c r="R8" s="56"/>
       <c r="S8" s="15" t="s">
         <v>19</v>
       </c>
@@ -2365,7 +2361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>126</v>
       </c>
@@ -2411,10 +2407,10 @@
       <c r="P9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="56" t="s">
+      <c r="Q9" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="56" t="s">
         <v>384</v>
       </c>
       <c r="S9" s="15" t="s">
@@ -2430,7 +2426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>20</v>
       </c>
@@ -2476,10 +2472,10 @@
       <c r="P10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="56" t="s">
+      <c r="Q10" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R10" s="60"/>
+      <c r="R10" s="56"/>
       <c r="S10" s="15" t="s">
         <v>22</v>
       </c>
@@ -2493,7 +2489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>52</v>
       </c>
@@ -2539,10 +2535,10 @@
       <c r="P11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="56" t="s">
+      <c r="Q11" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R11" s="60"/>
+      <c r="R11" s="56"/>
       <c r="S11" s="15" t="s">
         <v>54</v>
       </c>
@@ -2556,7 +2552,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:26" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:26" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="26" t="s">
         <v>11</v>
       </c>
@@ -2605,7 +2601,7 @@
       <c r="Q12" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="R12" s="61"/>
+      <c r="R12" s="58"/>
       <c r="S12" s="32" t="s">
         <v>14</v>
       </c>
@@ -2619,7 +2615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>46</v>
       </c>
@@ -2665,10 +2661,10 @@
       <c r="P13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="56" t="s">
+      <c r="Q13" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R13" s="60" t="s">
+      <c r="R13" s="56" t="s">
         <v>385</v>
       </c>
       <c r="S13" s="15" t="s">
@@ -2678,7 +2674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
         <v>64</v>
       </c>
@@ -2724,10 +2720,10 @@
       <c r="P14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="56" t="s">
+      <c r="Q14" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R14" s="60"/>
+      <c r="R14" s="56"/>
       <c r="S14" s="15" t="s">
         <v>66</v>
       </c>
@@ -2741,7 +2737,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>155</v>
       </c>
@@ -2787,10 +2783,10 @@
       <c r="P15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="56" t="s">
+      <c r="Q15" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R15" s="60"/>
+      <c r="R15" s="56"/>
       <c r="S15" s="15" t="s">
         <v>156</v>
       </c>
@@ -2798,7 +2794,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>26</v>
       </c>
@@ -2844,10 +2840,10 @@
       <c r="P16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q16" s="56" t="s">
+      <c r="Q16" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R16" s="60" t="s">
+      <c r="R16" s="56" t="s">
         <v>386</v>
       </c>
       <c r="S16" s="15" t="s">
@@ -2863,7 +2859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>41</v>
       </c>
@@ -2909,10 +2905,10 @@
       <c r="P17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q17" s="56" t="s">
+      <c r="Q17" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R17" s="60"/>
+      <c r="R17" s="56"/>
       <c r="S17" s="15" t="s">
         <v>43</v>
       </c>
@@ -2926,7 +2922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>204</v>
       </c>
@@ -2972,10 +2968,10 @@
       <c r="P18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q18" s="56" t="s">
+      <c r="Q18" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R18" s="60"/>
+      <c r="R18" s="56"/>
       <c r="S18" s="15" t="s">
         <v>206</v>
       </c>
@@ -2983,7 +2979,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
         <v>222</v>
       </c>
@@ -3029,10 +3025,10 @@
       <c r="P19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q19" s="56" t="s">
+      <c r="Q19" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R19" s="60" t="s">
+      <c r="R19" s="56" t="s">
         <v>387</v>
       </c>
       <c r="S19" s="15" t="s">
@@ -3042,7 +3038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>48</v>
       </c>
@@ -3088,10 +3084,10 @@
       <c r="P20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q20" s="56" t="s">
+      <c r="Q20" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R20" s="60"/>
+      <c r="R20" s="56"/>
       <c r="S20" s="15" t="s">
         <v>49</v>
       </c>
@@ -3105,7 +3101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
         <v>163</v>
       </c>
@@ -3151,10 +3147,10 @@
       <c r="P21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q21" s="56" t="s">
+      <c r="Q21" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R21" s="60" t="s">
+      <c r="R21" s="56" t="s">
         <v>388</v>
       </c>
       <c r="S21" s="15" t="s">
@@ -3170,7 +3166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
         <v>32</v>
       </c>
@@ -3216,10 +3212,10 @@
       <c r="P22" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q22" s="56" t="s">
+      <c r="Q22" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R22" s="60" t="s">
+      <c r="R22" s="56" t="s">
         <v>389</v>
       </c>
       <c r="S22" s="15" t="s">
@@ -3235,7 +3231,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
         <v>58</v>
       </c>
@@ -3281,10 +3277,10 @@
       <c r="P23" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Q23" s="56" t="s">
+      <c r="Q23" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R23" s="60"/>
+      <c r="R23" s="56"/>
       <c r="S23" s="15" t="s">
         <v>61</v>
       </c>
@@ -3298,7 +3294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>113</v>
       </c>
@@ -3344,10 +3340,10 @@
       <c r="P24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q24" s="56" t="s">
+      <c r="Q24" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R24" s="60" t="s">
+      <c r="R24" s="56" t="s">
         <v>390</v>
       </c>
       <c r="S24" s="15" t="s">
@@ -3363,7 +3359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
         <v>72</v>
       </c>
@@ -3409,10 +3405,10 @@
       <c r="P25" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q25" s="56" t="s">
+      <c r="Q25" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R25" s="60"/>
+      <c r="R25" s="56"/>
       <c r="S25" s="15" t="s">
         <v>73</v>
       </c>
@@ -3426,7 +3422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>74</v>
       </c>
@@ -3472,10 +3468,10 @@
       <c r="P26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q26" s="56" t="s">
+      <c r="Q26" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R26" s="60"/>
+      <c r="R26" s="56"/>
       <c r="S26" s="15" t="s">
         <v>75</v>
       </c>
@@ -3489,7 +3485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
         <v>233</v>
       </c>
@@ -3535,10 +3531,10 @@
       <c r="P27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q27" s="56" t="s">
+      <c r="Q27" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R27" s="60" t="s">
+      <c r="R27" s="56" t="s">
         <v>391</v>
       </c>
       <c r="S27" s="15" t="s">
@@ -3554,7 +3550,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>95</v>
       </c>
@@ -3600,10 +3596,10 @@
       <c r="P28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q28" s="56" t="s">
+      <c r="Q28" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R28" s="60" t="s">
+      <c r="R28" s="56" t="s">
         <v>392</v>
       </c>
       <c r="S28" s="15" t="s">
@@ -3619,7 +3615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>86</v>
       </c>
@@ -3665,10 +3661,10 @@
       <c r="P29" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q29" s="56" t="s">
+      <c r="Q29" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R29" s="60"/>
+      <c r="R29" s="56"/>
       <c r="S29" s="15" t="s">
         <v>87</v>
       </c>
@@ -3682,7 +3678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
         <v>170</v>
       </c>
@@ -3728,10 +3724,10 @@
       <c r="P30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q30" s="56" t="s">
+      <c r="Q30" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R30" s="60"/>
+      <c r="R30" s="56"/>
       <c r="S30" s="15" t="s">
         <v>172</v>
       </c>
@@ -3745,7 +3741,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
         <v>296</v>
       </c>
@@ -3791,10 +3787,10 @@
       <c r="P31" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q31" s="56" t="s">
+      <c r="Q31" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R31" s="60" t="s">
+      <c r="R31" s="56" t="s">
         <v>393</v>
       </c>
       <c r="S31" s="15" t="s">
@@ -3810,7 +3806,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>105</v>
       </c>
@@ -3856,10 +3852,10 @@
       <c r="P32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q32" s="56" t="s">
+      <c r="Q32" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R32" s="60" t="s">
+      <c r="R32" s="56" t="s">
         <v>394</v>
       </c>
       <c r="S32" s="15" t="s">
@@ -3875,7 +3871,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
         <v>100</v>
       </c>
@@ -3921,10 +3917,10 @@
       <c r="P33" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q33" s="56" t="s">
+      <c r="Q33" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R33" s="60" t="s">
+      <c r="R33" s="56" t="s">
         <v>388</v>
       </c>
       <c r="S33" s="15" t="s">
@@ -3940,7 +3936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
         <v>138</v>
       </c>
@@ -3986,10 +3982,10 @@
       <c r="P34" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q34" s="56" t="s">
+      <c r="Q34" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R34" s="60" t="s">
+      <c r="R34" s="56" t="s">
         <v>395</v>
       </c>
       <c r="S34" s="15" t="s">
@@ -3999,7 +3995,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
         <v>148</v>
       </c>
@@ -4045,10 +4041,10 @@
       <c r="P35" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q35" s="56" t="s">
+      <c r="Q35" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R35" s="60" t="s">
+      <c r="R35" s="56" t="s">
         <v>396</v>
       </c>
       <c r="S35" s="15" t="s">
@@ -4064,7 +4060,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>252</v>
       </c>
@@ -4110,10 +4106,10 @@
       <c r="P36" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q36" s="56" t="s">
+      <c r="Q36" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R36" s="60"/>
+      <c r="R36" s="56"/>
       <c r="S36" s="15" t="s">
         <v>253</v>
       </c>
@@ -4127,7 +4123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
         <v>279</v>
       </c>
@@ -4173,10 +4169,10 @@
       <c r="P37" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q37" s="56" t="s">
+      <c r="Q37" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R37" s="60" t="s">
+      <c r="R37" s="56" t="s">
         <v>397</v>
       </c>
       <c r="S37" s="15" t="s">
@@ -4192,7 +4188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>176</v>
       </c>
@@ -4238,10 +4234,10 @@
       <c r="P38" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q38" s="56" t="s">
+      <c r="Q38" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R38" s="60" t="s">
+      <c r="R38" s="56" t="s">
         <v>398</v>
       </c>
       <c r="S38" s="15" t="s">
@@ -4257,7 +4253,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
         <v>282</v>
       </c>
@@ -4303,10 +4299,10 @@
       <c r="P39" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q39" s="56" t="s">
+      <c r="Q39" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R39" s="60"/>
+      <c r="R39" s="56"/>
       <c r="S39" s="15" t="s">
         <v>283</v>
       </c>
@@ -4320,7 +4316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>198</v>
       </c>
@@ -4366,10 +4362,10 @@
       <c r="P40" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q40" s="56" t="s">
+      <c r="Q40" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R40" s="60" t="s">
+      <c r="R40" s="56" t="s">
         <v>387</v>
       </c>
       <c r="S40" s="15" t="s">
@@ -4379,7 +4375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
         <v>357</v>
       </c>
@@ -4425,10 +4421,10 @@
       <c r="P41" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q41" s="56" t="s">
+      <c r="Q41" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R41" s="60" t="s">
+      <c r="R41" s="56" t="s">
         <v>399</v>
       </c>
       <c r="S41" s="15" t="s">
@@ -4444,7 +4440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
         <v>157</v>
       </c>
@@ -4490,10 +4486,10 @@
       <c r="P42" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q42" s="56" t="s">
+      <c r="Q42" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R42" s="60" t="s">
+      <c r="R42" s="56" t="s">
         <v>400</v>
       </c>
       <c r="S42" s="15" t="s">
@@ -4509,7 +4505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
         <v>121</v>
       </c>
@@ -4555,10 +4551,10 @@
       <c r="P43" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q43" s="56" t="s">
+      <c r="Q43" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R43" s="60"/>
+      <c r="R43" s="56"/>
       <c r="S43" s="15" t="s">
         <v>123</v>
       </c>
@@ -4572,7 +4568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
         <v>303</v>
       </c>
@@ -4618,10 +4614,10 @@
       <c r="P44" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q44" s="56" t="s">
+      <c r="Q44" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R44" s="60"/>
+      <c r="R44" s="56"/>
       <c r="S44" s="15" t="s">
         <v>304</v>
       </c>
@@ -4635,7 +4631,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
         <v>145</v>
       </c>
@@ -4681,10 +4677,10 @@
       <c r="P45" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q45" s="56" t="s">
+      <c r="Q45" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R45" s="60" t="s">
+      <c r="R45" s="56" t="s">
         <v>401</v>
       </c>
       <c r="S45" s="15" t="s">
@@ -4700,7 +4696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
         <v>346</v>
       </c>
@@ -4746,10 +4742,10 @@
       <c r="P46" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q46" s="56" t="s">
+      <c r="Q46" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R46" s="60" t="s">
+      <c r="R46" s="56" t="s">
         <v>402</v>
       </c>
       <c r="S46" s="15" t="s">
@@ -4765,7 +4761,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
         <v>140</v>
       </c>
@@ -4811,10 +4807,10 @@
       <c r="P47" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q47" s="56" t="s">
+      <c r="Q47" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R47" s="60" t="s">
+      <c r="R47" s="56" t="s">
         <v>403</v>
       </c>
       <c r="S47" s="15" t="s">
@@ -4830,7 +4826,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B48" s="13" t="s">
         <v>70</v>
       </c>
@@ -4876,10 +4872,10 @@
       <c r="P48" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q48" s="56" t="s">
+      <c r="Q48" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R48" s="60" t="s">
+      <c r="R48" s="56" t="s">
         <v>404</v>
       </c>
       <c r="S48" s="15" t="s">
@@ -4895,7 +4891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B49" s="13" t="s">
         <v>266</v>
       </c>
@@ -4941,10 +4937,10 @@
       <c r="P49" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q49" s="56" t="s">
+      <c r="Q49" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R49" s="60"/>
+      <c r="R49" s="56"/>
       <c r="S49" s="15" t="s">
         <v>267</v>
       </c>
@@ -4958,7 +4954,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="50" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B50" s="13" t="s">
         <v>165</v>
       </c>
@@ -5004,10 +5000,10 @@
       <c r="P50" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q50" s="56" t="s">
+      <c r="Q50" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R50" s="60" t="s">
+      <c r="R50" s="56" t="s">
         <v>405</v>
       </c>
       <c r="S50" s="15" t="s">
@@ -5023,7 +5019,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
         <v>292</v>
       </c>
@@ -5069,10 +5065,10 @@
       <c r="P51" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q51" s="56" t="s">
+      <c r="Q51" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R51" s="60"/>
+      <c r="R51" s="56"/>
       <c r="S51" s="15" t="s">
         <v>293</v>
       </c>
@@ -5086,7 +5082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B52" s="13" t="s">
         <v>189</v>
       </c>
@@ -5132,10 +5128,10 @@
       <c r="P52" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q52" s="56" t="s">
+      <c r="Q52" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R52" s="60" t="s">
+      <c r="R52" s="56" t="s">
         <v>406</v>
       </c>
       <c r="S52" s="15" t="s">
@@ -5151,7 +5147,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B53" s="13" t="s">
         <v>318</v>
       </c>
@@ -5197,10 +5193,10 @@
       <c r="P53" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q53" s="56" t="s">
+      <c r="Q53" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R53" s="60" t="s">
+      <c r="R53" s="56" t="s">
         <v>407</v>
       </c>
       <c r="S53" s="15" t="s">
@@ -5210,7 +5206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B54" s="13" t="s">
         <v>151</v>
       </c>
@@ -5252,10 +5248,10 @@
       <c r="P54" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q54" s="56" t="s">
+      <c r="Q54" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R54" s="60" t="s">
+      <c r="R54" s="56" t="s">
         <v>408</v>
       </c>
       <c r="S54" s="15" t="s">
@@ -5271,7 +5267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B55" s="13" t="s">
         <v>181</v>
       </c>
@@ -5317,10 +5313,10 @@
       <c r="P55" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q55" s="56" t="s">
+      <c r="Q55" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R55" s="60"/>
+      <c r="R55" s="56"/>
       <c r="S55" s="15" t="s">
         <v>182</v>
       </c>
@@ -5334,7 +5330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B56" s="13" t="s">
         <v>159</v>
       </c>
@@ -5380,10 +5376,10 @@
       <c r="P56" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q56" s="56" t="s">
+      <c r="Q56" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R56" s="60"/>
+      <c r="R56" s="56"/>
       <c r="S56" s="15" t="s">
         <v>160</v>
       </c>
@@ -5397,7 +5393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B57" s="13" t="s">
         <v>220</v>
       </c>
@@ -5443,10 +5439,10 @@
       <c r="P57" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q57" s="56" t="s">
+      <c r="Q57" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R57" s="60"/>
+      <c r="R57" s="56"/>
       <c r="S57" s="15" t="s">
         <v>221</v>
       </c>
@@ -5454,7 +5450,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="2:26" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:26" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="34" t="s">
         <v>230</v>
       </c>
@@ -5500,10 +5496,10 @@
       <c r="P58" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Q58" s="56" t="s">
+      <c r="Q58" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R58" s="60" t="s">
+      <c r="R58" s="56" t="s">
         <v>409</v>
       </c>
       <c r="S58" s="40" t="s">
@@ -5522,7 +5518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B59" s="13" t="s">
         <v>200</v>
       </c>
@@ -5568,10 +5564,10 @@
       <c r="P59" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Q59" s="56" t="s">
+      <c r="Q59" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R59" s="60" t="s">
+      <c r="R59" s="56" t="s">
         <v>410</v>
       </c>
       <c r="S59" s="15" t="s">
@@ -5581,7 +5577,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B60" s="13" t="s">
         <v>90</v>
       </c>
@@ -5627,10 +5623,10 @@
       <c r="P60" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q60" s="56" t="s">
+      <c r="Q60" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R60" s="60" t="s">
+      <c r="R60" s="56" t="s">
         <v>411</v>
       </c>
       <c r="S60" s="15" t="s">
@@ -5646,7 +5642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B61" s="13" t="s">
         <v>135</v>
       </c>
@@ -5692,10 +5688,10 @@
       <c r="P61" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q61" s="56" t="s">
+      <c r="Q61" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R61" s="60" t="s">
+      <c r="R61" s="56" t="s">
         <v>412</v>
       </c>
       <c r="S61" s="15" t="s">
@@ -5705,7 +5701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B62" s="13" t="s">
         <v>174</v>
       </c>
@@ -5751,10 +5747,10 @@
       <c r="P62" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q62" s="56" t="s">
+      <c r="Q62" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R62" s="60"/>
+      <c r="R62" s="56"/>
       <c r="S62" s="15" t="s">
         <v>175</v>
       </c>
@@ -5762,7 +5758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B63" s="13" t="s">
         <v>337</v>
       </c>
@@ -5808,10 +5804,10 @@
       <c r="P63" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q63" s="56" t="s">
+      <c r="Q63" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R63" s="60" t="s">
+      <c r="R63" s="56" t="s">
         <v>413</v>
       </c>
       <c r="S63" s="15" t="s">
@@ -5821,7 +5817,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B64" s="13" t="s">
         <v>349</v>
       </c>
@@ -5865,10 +5861,10 @@
       <c r="P64" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q64" s="56" t="s">
+      <c r="Q64" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R64" s="60"/>
+      <c r="R64" s="56"/>
       <c r="S64" s="15" t="s">
         <v>351</v>
       </c>
@@ -5882,7 +5878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B65" s="13" t="s">
         <v>273</v>
       </c>
@@ -5928,10 +5924,10 @@
       <c r="P65" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q65" s="56" t="s">
+      <c r="Q65" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R65" s="60"/>
+      <c r="R65" s="56"/>
       <c r="S65" s="15" t="s">
         <v>274</v>
       </c>
@@ -5945,7 +5941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B66" s="13" t="s">
         <v>224</v>
       </c>
@@ -5991,10 +5987,10 @@
       <c r="P66" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q66" s="56" t="s">
+      <c r="Q66" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R66" s="60" t="s">
+      <c r="R66" s="56" t="s">
         <v>414</v>
       </c>
       <c r="S66" s="15" t="s">
@@ -6004,7 +6000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B67" s="13" t="s">
         <v>83</v>
       </c>
@@ -6050,10 +6046,10 @@
       <c r="P67" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q67" s="56" t="s">
+      <c r="Q67" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R67" s="60"/>
+      <c r="R67" s="56"/>
       <c r="S67" s="15" t="s">
         <v>84</v>
       </c>
@@ -6061,7 +6057,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B68" s="13" t="s">
         <v>209</v>
       </c>
@@ -6107,10 +6103,10 @@
       <c r="P68" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q68" s="56" t="s">
+      <c r="Q68" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R68" s="60"/>
+      <c r="R68" s="56"/>
       <c r="S68" s="15" t="s">
         <v>210</v>
       </c>
@@ -6124,7 +6120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B69" s="13" t="s">
         <v>315</v>
       </c>
@@ -6170,10 +6166,10 @@
       <c r="P69" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q69" s="56" t="s">
+      <c r="Q69" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R69" s="60" t="s">
+      <c r="R69" s="56" t="s">
         <v>415</v>
       </c>
       <c r="S69" s="15" t="s">
@@ -6189,7 +6185,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B70" s="13" t="s">
         <v>320</v>
       </c>
@@ -6235,10 +6231,10 @@
       <c r="P70" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q70" s="56" t="s">
+      <c r="Q70" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R70" s="60" t="s">
+      <c r="R70" s="56" t="s">
         <v>416</v>
       </c>
       <c r="S70" s="15" t="s">
@@ -6254,7 +6250,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B71" s="13" t="s">
         <v>286</v>
       </c>
@@ -6300,10 +6296,10 @@
       <c r="P71" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q71" s="56" t="s">
+      <c r="Q71" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R71" s="60" t="s">
+      <c r="R71" s="56" t="s">
         <v>417</v>
       </c>
       <c r="S71" s="15" t="s">
@@ -6319,7 +6315,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B72" s="13" t="s">
         <v>226</v>
       </c>
@@ -6365,10 +6361,10 @@
       <c r="P72" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q72" s="56" t="s">
+      <c r="Q72" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R72" s="60" t="s">
+      <c r="R72" s="56" t="s">
         <v>418</v>
       </c>
       <c r="S72" s="15" t="s">
@@ -6384,7 +6380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B73" s="13" t="s">
         <v>300</v>
       </c>
@@ -6430,10 +6426,10 @@
       <c r="P73" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q73" s="56" t="s">
+      <c r="Q73" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R73" s="60"/>
+      <c r="R73" s="56"/>
       <c r="S73" s="15" t="s">
         <v>301</v>
       </c>
@@ -6447,7 +6443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B74" s="13" t="s">
         <v>131</v>
       </c>
@@ -6493,10 +6489,10 @@
       <c r="P74" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q74" s="56" t="s">
+      <c r="Q74" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R74" s="60" t="s">
+      <c r="R74" s="56" t="s">
         <v>407</v>
       </c>
       <c r="S74" s="15" t="s">
@@ -6512,7 +6508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B75" s="13" t="s">
         <v>289</v>
       </c>
@@ -6558,10 +6554,10 @@
       <c r="P75" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q75" s="56" t="s">
+      <c r="Q75" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R75" s="60" t="s">
+      <c r="R75" s="56" t="s">
         <v>419</v>
       </c>
       <c r="S75" s="15" t="s">
@@ -6577,7 +6573,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B76" s="13" t="s">
         <v>110</v>
       </c>
@@ -6621,10 +6617,10 @@
       <c r="P76" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q76" s="56" t="s">
+      <c r="Q76" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R76" s="60" t="s">
+      <c r="R76" s="56" t="s">
         <v>420</v>
       </c>
       <c r="S76" s="15" t="s">
@@ -6634,7 +6630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B77" s="13" t="s">
         <v>311</v>
       </c>
@@ -6680,10 +6676,10 @@
       <c r="P77" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q77" s="56" t="s">
+      <c r="Q77" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R77" s="60"/>
+      <c r="R77" s="56"/>
       <c r="S77" s="15" t="s">
         <v>312</v>
       </c>
@@ -6697,7 +6693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B78" s="13" t="s">
         <v>78</v>
       </c>
@@ -6743,10 +6739,10 @@
       <c r="P78" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q78" s="56" t="s">
+      <c r="Q78" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R78" s="60" t="s">
+      <c r="R78" s="56" t="s">
         <v>421</v>
       </c>
       <c r="S78" s="15" t="s">
@@ -6762,7 +6758,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B79" s="13" t="s">
         <v>218</v>
       </c>
@@ -6808,10 +6804,10 @@
       <c r="P79" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q79" s="56" t="s">
+      <c r="Q79" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R79" s="60"/>
+      <c r="R79" s="56"/>
       <c r="S79" s="15" t="s">
         <v>219</v>
       </c>
@@ -6819,7 +6815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:26" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="34" t="s">
         <v>255</v>
       </c>
@@ -6865,10 +6861,10 @@
       <c r="P80" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="Q80" s="56" t="s">
+      <c r="Q80" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R80" s="60" t="s">
+      <c r="R80" s="56" t="s">
         <v>422</v>
       </c>
       <c r="S80" s="40" t="s">
@@ -6887,7 +6883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B81" s="13" t="s">
         <v>117</v>
       </c>
@@ -6933,10 +6929,10 @@
       <c r="P81" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q81" s="56" t="s">
+      <c r="Q81" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R81" s="60" t="s">
+      <c r="R81" s="56" t="s">
         <v>423</v>
       </c>
       <c r="S81" s="15" t="s">
@@ -6952,7 +6948,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:26" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="43" t="s">
         <v>207</v>
       </c>
@@ -6998,10 +6994,10 @@
       <c r="P82" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="Q82" s="56" t="s">
+      <c r="Q82" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R82" s="60" t="s">
+      <c r="R82" s="56" t="s">
         <v>424</v>
       </c>
       <c r="S82" s="49" t="s">
@@ -7014,7 +7010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B83" s="13" t="s">
         <v>185</v>
       </c>
@@ -7060,10 +7056,10 @@
       <c r="P83" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q83" s="56" t="s">
+      <c r="Q83" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R83" s="60" t="s">
+      <c r="R83" s="56" t="s">
         <v>425</v>
       </c>
       <c r="S83" s="15" t="s">
@@ -7079,7 +7075,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B84" s="13" t="s">
         <v>262</v>
       </c>
@@ -7125,10 +7121,10 @@
       <c r="P84" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q84" s="56" t="s">
+      <c r="Q84" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R84" s="60"/>
+      <c r="R84" s="56"/>
       <c r="S84" s="15" t="s">
         <v>263</v>
       </c>
@@ -7142,7 +7138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B85" s="13" t="s">
         <v>333</v>
       </c>
@@ -7188,10 +7184,10 @@
       <c r="P85" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q85" s="56" t="s">
+      <c r="Q85" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R85" s="60" t="s">
+      <c r="R85" s="56" t="s">
         <v>426</v>
       </c>
       <c r="S85" s="15" t="s">
@@ -7207,7 +7203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B86" s="13" t="s">
         <v>242</v>
       </c>
@@ -7253,10 +7249,10 @@
       <c r="P86" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q86" s="56" t="s">
+      <c r="Q86" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R86" s="60"/>
+      <c r="R86" s="56"/>
       <c r="S86" s="15" t="s">
         <v>243</v>
       </c>
@@ -7270,7 +7266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B87" s="13" t="s">
         <v>329</v>
       </c>
@@ -7316,10 +7312,10 @@
       <c r="P87" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q87" s="56" t="s">
+      <c r="Q87" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R87" s="60"/>
+      <c r="R87" s="56"/>
       <c r="S87" s="15" t="s">
         <v>330</v>
       </c>
@@ -7333,7 +7329,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B88" s="13" t="s">
         <v>323</v>
       </c>
@@ -7379,10 +7375,10 @@
       <c r="P88" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q88" s="56" t="s">
+      <c r="Q88" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R88" s="60" t="s">
+      <c r="R88" s="56" t="s">
         <v>427</v>
       </c>
       <c r="S88" s="15" t="s">
@@ -7398,7 +7394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B89" s="13" t="s">
         <v>247</v>
       </c>
@@ -7444,10 +7440,10 @@
       <c r="P89" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q89" s="56" t="s">
+      <c r="Q89" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R89" s="60"/>
+      <c r="R89" s="56"/>
       <c r="S89" s="15" t="s">
         <v>248</v>
       </c>
@@ -7461,7 +7457,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B90" s="13" t="s">
         <v>237</v>
       </c>
@@ -7507,10 +7503,10 @@
       <c r="P90" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q90" s="56" t="s">
+      <c r="Q90" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R90" s="60" t="s">
+      <c r="R90" s="56" t="s">
         <v>428</v>
       </c>
       <c r="S90" s="15" t="s">
@@ -7526,7 +7522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B91" s="13" t="s">
         <v>213</v>
       </c>
@@ -7572,10 +7568,10 @@
       <c r="P91" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q91" s="56" t="s">
+      <c r="Q91" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R91" s="60" t="s">
+      <c r="R91" s="56" t="s">
         <v>429</v>
       </c>
       <c r="S91" s="15" t="s">
@@ -7591,7 +7587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B92" s="13" t="s">
         <v>250</v>
       </c>
@@ -7637,10 +7633,10 @@
       <c r="P92" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q92" s="56" t="s">
+      <c r="Q92" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R92" s="60"/>
+      <c r="R92" s="56"/>
       <c r="S92" s="15" t="s">
         <v>251</v>
       </c>
@@ -7648,7 +7644,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B93" s="13" t="s">
         <v>343</v>
       </c>
@@ -7694,10 +7690,10 @@
       <c r="P93" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q93" s="56" t="s">
+      <c r="Q93" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R93" s="60"/>
+      <c r="R93" s="56"/>
       <c r="S93" s="15" t="s">
         <v>344</v>
       </c>
@@ -7711,7 +7707,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B94" s="13" t="s">
         <v>353</v>
       </c>
@@ -7757,10 +7753,10 @@
       <c r="P94" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="Q94" s="56" t="s">
+      <c r="Q94" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R94" s="60"/>
+      <c r="R94" s="56"/>
       <c r="S94" s="15" t="s">
         <v>354</v>
       </c>
@@ -7774,7 +7770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B95" s="13" t="s">
         <v>339</v>
       </c>
@@ -7820,10 +7816,10 @@
       <c r="P95" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q95" s="56" t="s">
+      <c r="Q95" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R95" s="60"/>
+      <c r="R95" s="56"/>
       <c r="S95" s="15" t="s">
         <v>340</v>
       </c>
@@ -7837,7 +7833,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B96" s="13" t="s">
         <v>326</v>
       </c>
@@ -7883,10 +7879,10 @@
       <c r="P96" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q96" s="56" t="s">
+      <c r="Q96" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R96" s="60"/>
+      <c r="R96" s="56"/>
       <c r="S96" s="15" t="s">
         <v>327</v>
       </c>
@@ -7900,7 +7896,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B97" s="13" t="s">
         <v>276</v>
       </c>
@@ -7946,10 +7942,10 @@
       <c r="P97" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q97" s="56" t="s">
+      <c r="Q97" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R97" s="60"/>
+      <c r="R97" s="56"/>
       <c r="S97" s="15" t="s">
         <v>277</v>
       </c>
@@ -7963,7 +7959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B98" s="13" t="s">
         <v>202</v>
       </c>
@@ -8009,10 +8005,10 @@
       <c r="P98" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q98" s="56" t="s">
+      <c r="Q98" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R98" s="60"/>
+      <c r="R98" s="56"/>
       <c r="S98" s="15" t="s">
         <v>203</v>
       </c>
@@ -8020,7 +8016,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B99" s="13" t="s">
         <v>308</v>
       </c>
@@ -8066,10 +8062,10 @@
       <c r="P99" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q99" s="56" t="s">
+      <c r="Q99" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R99" s="60"/>
+      <c r="R99" s="56"/>
       <c r="S99" s="15" t="s">
         <v>309</v>
       </c>
@@ -8083,7 +8079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B100" s="13" t="s">
         <v>270</v>
       </c>
@@ -8129,10 +8125,10 @@
       <c r="P100" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q100" s="56" t="s">
+      <c r="Q100" s="55" t="s">
         <v>382</v>
       </c>
-      <c r="R100" s="60"/>
+      <c r="R100" s="56"/>
       <c r="S100" s="15" t="s">
         <v>271</v>
       </c>
@@ -8146,7 +8142,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B101" s="13" t="s">
         <v>259</v>
       </c>
@@ -8192,10 +8188,10 @@
       <c r="P101" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q101" s="56" t="s">
+      <c r="Q101" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="R101" s="60" t="s">
+      <c r="R101" s="56" t="s">
         <v>430</v>
       </c>
       <c r="S101" s="15" t="s">
@@ -8211,7 +8207,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
         <v>194</v>
       </c>
@@ -8257,10 +8253,10 @@
       <c r="P102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q102" s="58" t="s">
+      <c r="Q102" s="59" t="s">
         <v>381</v>
       </c>
-      <c r="R102" s="62" t="s">
+      <c r="R102" s="60" t="s">
         <v>431</v>
       </c>
       <c r="S102" s="12" t="s">
